--- a/aws_stephane/aws_definition-part1.xlsx
+++ b/aws_stephane/aws_definition-part1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="IAM and EC2" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,10 @@
     <sheet name="cicd commit,pipeline,build,depl" sheetId="13" r:id="rId13"/>
     <sheet name="aws cloudformation" sheetId="14" r:id="rId14"/>
     <sheet name="cloudwatch,xray,cloudtrail" sheetId="15" r:id="rId15"/>
+    <sheet name="messaging sqs,sns,kinesis" sheetId="16" r:id="rId16"/>
+    <sheet name="serverless lambda" sheetId="17" r:id="rId17"/>
+    <sheet name="serverless dynamodb" sheetId="19" r:id="rId18"/>
+    <sheet name="serverless api gateway" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1247">
   <si>
     <t>Terms</t>
   </si>
@@ -3136,12 +3140,1206 @@
   <si>
     <t>exported output name must be unique within the region</t>
   </si>
+  <si>
+    <t>AWS CloudWatch:</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Alarms</t>
+  </si>
+  <si>
+    <t>AWS X-Ray</t>
+  </si>
+  <si>
+    <t>AWS CloudTrail:</t>
+  </si>
+  <si>
+    <t>Collect and track key metrics</t>
+  </si>
+  <si>
+    <t>Collect, monitor, analyze and store log files</t>
+  </si>
+  <si>
+    <t>Send notifications when certain events happen in your AWS</t>
+  </si>
+  <si>
+    <t>React in real-time to metrics / events</t>
+  </si>
+  <si>
+    <t>Troubleshooting application performance and errors</t>
+  </si>
+  <si>
+    <t>Distributed tracing of microservices</t>
+  </si>
+  <si>
+    <t>Internal monitoring of API calls being made</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch Metrics</t>
+  </si>
+  <si>
+    <t>CloudWatch provides metrics for every services in AWS</t>
+  </si>
+  <si>
+    <t>Metric is a variable to monitor (CPUUtilization, NetworkIn…)</t>
+  </si>
+  <si>
+    <t>Metrics belong to namespaces</t>
+  </si>
+  <si>
+    <t>Dimension is an attribute of a metric (instance id, environment, etc…).</t>
+  </si>
+  <si>
+    <t>Can create CloudWatch dashboards of metrics</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch Custom Metrics</t>
+  </si>
+  <si>
+    <t>Use API call PutMetricData</t>
+  </si>
+  <si>
+    <t>Use exponential back off in case of throttle errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good to know </t>
+  </si>
+  <si>
+    <t>if we enabled detailed monitoring we will get in every one minute</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch Alarms</t>
+  </si>
+  <si>
+    <r>
+      <t>The new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CloudWatch Alarms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> feature allows you to watch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CloudWatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> metrics and to receive notifications when the metrics fall outside of the levels (high or low thresholds) that you configure</t>
+    </r>
+  </si>
+  <si>
+    <t>Alarms are used to trigger notifications for any metric</t>
+  </si>
+  <si>
+    <t>Alarms can go to Auto Scaling, EC2 Actions, SNS notifications</t>
+  </si>
+  <si>
+    <t>Alarm States</t>
+  </si>
+  <si>
+    <t>• OK • INSUFFICIENT_DATA • ALARM</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>High resolution custom metrics: can only choose 10 sec or 30 sec</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch Logs</t>
+  </si>
+  <si>
+    <t>Various options (sampling, %, max, min, etc…)</t>
+  </si>
+  <si>
+    <t>Applications can send logs to CloudWatch using the SDK</t>
+  </si>
+  <si>
+    <t>CloudWatch can collect log from:</t>
+  </si>
+  <si>
+    <t>Elastic Beanstalk: collection of logs from application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ECS: collection from containers</t>
+  </si>
+  <si>
+    <t>AWS Lambda: collection from function logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VPC Flow Logs: VPC specific logs</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>CloudTrail based on filter</t>
+  </si>
+  <si>
+    <t>CloudWatch log agents: for example on EC2 machines</t>
+  </si>
+  <si>
+    <t>Route53: Log DNS queries</t>
+  </si>
+  <si>
+    <t>CloudWatch Logs can go to</t>
+  </si>
+  <si>
+    <t>Batch exporter to S3 for archival</t>
+  </si>
+  <si>
+    <t>Stream to ElasticSearch cluster for further analytics</t>
+  </si>
+  <si>
+    <t>To send logs to cloudwatch IAM permission should be correct</t>
+  </si>
+  <si>
+    <t>Security: encryption of logs using KMS at the Group Leve</t>
+  </si>
+  <si>
+    <t>CloudWatch Logs for EC2</t>
+  </si>
+  <si>
+    <t>By default, no logs from your EC2 machine will go to CloudWatch</t>
+  </si>
+  <si>
+    <t>You need to run a CloudWatch agent on EC2 to push the log files you want</t>
+  </si>
+  <si>
+    <t>Make sure IAM permissions are correct</t>
+  </si>
+  <si>
+    <r>
+      <t>on-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>premise server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>is a physical, on-site </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> that a company must manage and maintain individually. </t>
+    </r>
+  </si>
+  <si>
+    <t>CloudWatch Unified Agent – Metrics</t>
+  </si>
+  <si>
+    <t>Collected directly on your Linux server / EC2 instance</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Disk metrics</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Netstat</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Swap Space</t>
+  </si>
+  <si>
+    <t>(active, guest, idle, system, user, steal)</t>
+  </si>
+  <si>
+    <t>(free, used, total), Disk IO (writes, reads, bytes, iops)</t>
+  </si>
+  <si>
+    <t>(free, inactive, used, total, cached)</t>
+  </si>
+  <si>
+    <t>(number ofTCP and UDP connections, net packets, bytes)</t>
+  </si>
+  <si>
+    <t>(total, dead, bloqued, idle, running, sleep)</t>
+  </si>
+  <si>
+    <t>(free, used, used %)</t>
+  </si>
+  <si>
+    <t>CloudWatch Logs Metric Filter</t>
+  </si>
+  <si>
+    <t>use For example</t>
+  </si>
+  <si>
+    <t>find a specific IP inside of a log</t>
+  </si>
+  <si>
+    <t>count occurrences of “ERROR” in your logs</t>
+  </si>
+  <si>
+    <t>We can create alarm on top of  metric filter( filter data in logs )log coming from cloudwatch</t>
+  </si>
+  <si>
+    <t>If some alarm raise it will send message to SNS</t>
+  </si>
+  <si>
+    <t>AWS CloudWatch Events</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Cron jobs</t>
+  </si>
+  <si>
+    <t>Triggers to</t>
+  </si>
+  <si>
+    <t>Lambda functions, SQS/SNS/Kinesis Messages</t>
+  </si>
+  <si>
+    <t>CloudWatch Event creates a small JSON document to give information about the change</t>
+  </si>
+  <si>
+    <t>event bus</t>
+  </si>
+  <si>
+    <t>sending and receiving event between aws account</t>
+  </si>
+  <si>
+    <t>Event buses can be accessed by other AWS accounts</t>
+  </si>
+  <si>
+    <t>Default event bus</t>
+  </si>
+  <si>
+    <t>generated by AWS services (CloudWatch Events)</t>
+  </si>
+  <si>
+    <t>receive events from SaaS service or applications (Zendesk, DataDog, Segment, Auth0…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partner event bus:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Custom Event buses</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>how to process the events (similar to CloudWatch Events)</t>
+  </si>
+  <si>
+    <t>EventBridge</t>
+  </si>
+  <si>
+    <t>can analyze the events in your bus and infer the schema</t>
+  </si>
+  <si>
+    <t>Schema Registry</t>
+  </si>
+  <si>
+    <t>allows you to generate code for your application, that will know in advance how data is structured in the event bus</t>
+  </si>
+  <si>
+    <t>AWS X ray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">helps developers analyze and debug production, distributed applications, such as those built using a microservices architecture. </t>
+  </si>
+  <si>
+    <t>Visual analysis of our applications</t>
+  </si>
+  <si>
+    <t>Error is coming from dynamo db table that we can visualise it using x ray</t>
+  </si>
+  <si>
+    <t>AWS X -Ray advantages</t>
+  </si>
+  <si>
+    <t>Troubleshooting performance (bottlenecks)</t>
+  </si>
+  <si>
+    <t>Understand dependencies in a microservice architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Find errors and exceptions</t>
+  </si>
+  <si>
+    <t>X -Ray compatibility</t>
+  </si>
+  <si>
+    <t>AWS Lambda • Elastic Beanstalk • ECS • ELB • API Gateway • EC2 Instances or any application server (even on premise)</t>
+  </si>
+  <si>
+    <t>X-Ray Security</t>
+  </si>
+  <si>
+    <t>IAM for authorization</t>
+  </si>
+  <si>
+    <t>KMS for encryption at rest</t>
+  </si>
+  <si>
+    <t>How to enable it</t>
+  </si>
+  <si>
+    <t>Install the X-Ray daemon or enable X-Ray AWS Integration</t>
+  </si>
+  <si>
+    <t>AWS X -Ray Troubleshooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If X -Ray is not working on EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ensure the EC2 IAM Role has the proper permissions</t>
+  </si>
+  <si>
+    <t>Ensure the EC2 instance is running the X-Ray Daemon</t>
+  </si>
+  <si>
+    <t>To enable on AWS Lambda</t>
+  </si>
+  <si>
+    <t>Ensure it has an IAM execution role with proper policy (AWSX-RayWriteOnlyAccess)</t>
+  </si>
+  <si>
+    <t>Ensure that X-Ray is imported in the code</t>
+  </si>
+  <si>
+    <t>X-Ray Concepts</t>
+  </si>
+  <si>
+    <t>Segments:</t>
+  </si>
+  <si>
+    <t>Subsegments</t>
+  </si>
+  <si>
+    <t>Trace</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>each application / service will send them</t>
+  </si>
+  <si>
+    <t>if you need more details in your segment</t>
+  </si>
+  <si>
+    <t>segments collected together to form an end-to-end trace</t>
+  </si>
+  <si>
+    <t>decrease the amount of requests sent to X-Ray, reduce cost</t>
+  </si>
+  <si>
+    <t>Key Value pairs used to index traces and use with filters</t>
+  </si>
+  <si>
+    <t>Key Value pairs, not indexed, not used for searching</t>
+  </si>
+  <si>
+    <t>• The X-Ray daemon / agent has a config to send traces cross account:</t>
+  </si>
+  <si>
+    <t>X ray sampling rules</t>
+  </si>
+  <si>
+    <t>With sampling rules, you control the amount of data that you record</t>
+  </si>
+  <si>
+    <t>By default, the X-Ray SDK records the first request each second, and five percent of any additional requests.</t>
+  </si>
+  <si>
+    <t>One request per second is the reservoir, which ensures that at least one trace is recorded each second as long the service is serving requests</t>
+  </si>
+  <si>
+    <t>• Five percent is the rate at which additional requests beyond the reservoir size are sampled.</t>
+  </si>
+  <si>
+    <t>X-Ray Write APIs (used by the X-Ray daemon)</t>
+  </si>
+  <si>
+    <t>PutTraceSegments:</t>
+  </si>
+  <si>
+    <t>PutTelemetryRecords:</t>
+  </si>
+  <si>
+    <t>Uploads segment documents to AWS X-Ray</t>
+  </si>
+  <si>
+    <t>Used by the AWS X-Ray daemon to upload telemetry</t>
+  </si>
+  <si>
+    <t>SegmentsReceivedCount, SegmentsRejectedCounts, BackendConnectionErrors…</t>
+  </si>
+  <si>
+    <t>GetSamplingRules:</t>
+  </si>
+  <si>
+    <t>Retrieve all sampling rules (to know what/when to send)</t>
+  </si>
+  <si>
+    <t>arn:aws:iam::aws:policy/AWSXrayWriteOnlyAccess</t>
+  </si>
+  <si>
+    <t>GetSamplingTargets &amp; GetSamplingStatisticSummaries: advanced</t>
+  </si>
+  <si>
+    <t>The X-Ray daemon needs to have an IAM policy authorizing the correct API calls to function correctly</t>
+  </si>
+  <si>
+    <t>X-Ray Read APIs</t>
+  </si>
+  <si>
+    <t>GetServiceGraph:</t>
+  </si>
+  <si>
+    <t>main graph</t>
+  </si>
+  <si>
+    <t>BatchGetTraces</t>
+  </si>
+  <si>
+    <t>Retrieves a list of traces specified by ID. Each trace is a collection of segment documents that originates from a single request</t>
+  </si>
+  <si>
+    <t>GetTraceSummaries</t>
+  </si>
+  <si>
+    <t>Retrieves IDs and annotations for traces available for a specified time frame using an optional filter. To get the full traces, pass the trace IDs to BatchGetTraces</t>
+  </si>
+  <si>
+    <t>GetTraceGraph:</t>
+  </si>
+  <si>
+    <t>Retrieves a service graph for one or more specific trace IDs</t>
+  </si>
+  <si>
+    <t>X-Ray with Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>You can run the daemon by setting an option in the Elastic Beanstalk console or with a configuration file (in .ebextensions/xray-daemon.config)</t>
+  </si>
+  <si>
+    <t>AWS CloudTrail</t>
+  </si>
+  <si>
+    <t>• CloudTrail is enabled by default!</t>
+  </si>
+  <si>
+    <t>we can track any api call that is done by anyone</t>
+  </si>
+  <si>
+    <t>Get an history of events / API calls made within your AWS Account by</t>
+  </si>
+  <si>
+    <t>• Console • SDK • CLI • AWS Services</t>
+  </si>
+  <si>
+    <t>Can put logs from CloudTrail into CloudWatch Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CloudTrail</t>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>X-Ray</t>
+  </si>
+  <si>
+    <t>Audit API calls made by users / services / AWS console</t>
+  </si>
+  <si>
+    <t>Useful to detect unauthorized calls or root cause of changes</t>
+  </si>
+  <si>
+    <t>CloudWatch Metrics over time for monitoring</t>
+  </si>
+  <si>
+    <t>CloudWatch Logs for storing application log</t>
+  </si>
+  <si>
+    <t>CloudWatch Alarms to send notifications in case of unexpected metrics</t>
+  </si>
+  <si>
+    <t>Automated Trace Analysis &amp; Central Service Map Visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Latency, Errors and Fault analysis</t>
+  </si>
+  <si>
+    <t>Request tracking across distributed systems</t>
+  </si>
+  <si>
+    <t>for your own applications. Minimum resolution 1 second</t>
+  </si>
+  <si>
+    <t>the alarm will remain in alarm state and never decrease  number of instance in ASG</t>
+  </si>
+  <si>
+    <t>cloudwatch logs never expire by default</t>
+  </si>
+  <si>
+    <t>CloudWatch Logs expiration policy should be defined at which level</t>
+  </si>
+  <si>
+    <t>Log Groups</t>
+  </si>
+  <si>
+    <t>synchronous communication</t>
+  </si>
+  <si>
+    <t>deploy multiple application they need to communicate</t>
+  </si>
+  <si>
+    <t>Asynchronous / Event based</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> synchronous application problem</t>
+  </si>
+  <si>
+    <t>sudden spikes of traffic</t>
+  </si>
+  <si>
+    <t>in that case</t>
+  </si>
+  <si>
+    <t>using SQS</t>
+  </si>
+  <si>
+    <t>queue model</t>
+  </si>
+  <si>
+    <t>using SNS:</t>
+  </si>
+  <si>
+    <t>pub/sub model</t>
+  </si>
+  <si>
+    <t>using Kinesis:</t>
+  </si>
+  <si>
+    <t>real-time streaming model</t>
+  </si>
+  <si>
+    <t>applicaion to application. directly talking with each other</t>
+  </si>
+  <si>
+    <t>application to queue to application</t>
+  </si>
+  <si>
+    <t>it’s better to decouple(separate) your applications,</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>producers send message to queue and consumers polls message from queue</t>
+  </si>
+  <si>
+    <t>SQS</t>
+  </si>
+  <si>
+    <t>Simple Queue Service</t>
+  </si>
+  <si>
+    <t>is a fully managed message queuing service that enables you to decouple and scale microservices, distributed systems, and serverless applications</t>
+  </si>
+  <si>
+    <t>decoupled application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A decoupled application architecture allows each component to perform its tasks independently </t>
+  </si>
+  <si>
+    <t>SQS Producing Message</t>
+  </si>
+  <si>
+    <t>Oldest offering (over 10 years old)</t>
+  </si>
+  <si>
+    <t>Produced to SQS using the SDK (SendMessage API)</t>
+  </si>
+  <si>
+    <t>The message is persisted in SQS until a consumer deletes it</t>
+  </si>
+  <si>
+    <t>Message retention: default 4 days, up to 14 days</t>
+  </si>
+  <si>
+    <t>Limitation of 256KB per message sent</t>
+  </si>
+  <si>
+    <t>• Example: send an order to be processed • Order id • Customer id</t>
+  </si>
+  <si>
+    <t>SQS standard: unlimited throughput</t>
+  </si>
+  <si>
+    <t>Can have duplicate messages</t>
+  </si>
+  <si>
+    <t>SQS – Consuming Messages</t>
+  </si>
+  <si>
+    <t>Consumers (running on EC2 instances, servers, or AWS Lambda)…</t>
+  </si>
+  <si>
+    <t>Poll SQS for messages (receive up to 10 messages at a time)</t>
+  </si>
+  <si>
+    <t>Process the messages (example: insert the message into an RDS database)</t>
+  </si>
+  <si>
+    <t>Delete the messages using the DeleteMessage API</t>
+  </si>
+  <si>
+    <t>SQS to decouple between application tiers</t>
+  </si>
+  <si>
+    <t>Requirement need to process video</t>
+  </si>
+  <si>
+    <t>To frontend request will come and   it pass to sqs then backened will process and insert it into s3 ( here application are independent with each other)</t>
+  </si>
+  <si>
+    <t>SQS - Security</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>In-flight encryption using HTTPS API</t>
+  </si>
+  <si>
+    <t>At-rest encryption using KMS keys</t>
+  </si>
+  <si>
+    <t>Client-side encryption if the client wants to perform encryption/decryption itself</t>
+  </si>
+  <si>
+    <t>Access Controls</t>
+  </si>
+  <si>
+    <t>SQS Access Policies</t>
+  </si>
+  <si>
+    <t>IAM policies to regulate access to the SQS API</t>
+  </si>
+  <si>
+    <t>(similar to S3 bucket policies)</t>
+  </si>
+  <si>
+    <t>Useful for cross-account access to SQS queues</t>
+  </si>
+  <si>
+    <t>Useful for allowing other services (SNS, S3…) to write to an SQS queue</t>
+  </si>
+  <si>
+    <r>
+      <t>With </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>serverless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> computing, your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> still runs on servers, but all the server management is done by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF5F6368"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AWS .sqs store message until microservice and serverless application process them</t>
+    </r>
+  </si>
+  <si>
+    <t>purge will delete all message in queue</t>
+  </si>
+  <si>
+    <t>SQS – Message Visibility Timeout</t>
+  </si>
+  <si>
+    <t>When message is processed by consumer other consumer cant process it during visibility time period if message is not deleted then after visibility time period consumer can process it</t>
+  </si>
+  <si>
+    <t>if a time taking by consumer is more  to consume message(  not able to process within visibility timeout) then it will call api ChangeMessageVisibility to get more time</t>
+  </si>
+  <si>
+    <t>If visibility timeout is too low (seconds), we may get duplicates</t>
+  </si>
+  <si>
+    <t>• By default, the “message visibility timeout” is 30 seconds. minimum is 0 seconds. The maximum is 12 hours.</t>
+  </si>
+  <si>
+    <t>we need to read message in visibility time period only</t>
+  </si>
+  <si>
+    <t>SQS – Dead Letter Queue</t>
+  </si>
+  <si>
+    <t>If a consumer fails to process a message within the Visibility Timeout… the message goes back to the queue. Useful for debugging</t>
+  </si>
+  <si>
+    <t>Make sure to process the messages in the DLQ before they expire</t>
+  </si>
+  <si>
+    <t>Good to set a retention of 14 days in the DLQ</t>
+  </si>
+  <si>
+    <t>DLQ</t>
+  </si>
+  <si>
+    <t>Delay Queue</t>
+  </si>
+  <si>
+    <t>Delay a message (consumers don’t see it immediately) up to 15 minutes</t>
+  </si>
+  <si>
+    <t>Default is 0 seconds (message is available right away)</t>
+  </si>
+  <si>
+    <t>• Can set a default at queue level</t>
+  </si>
+  <si>
+    <t>Can override the default on send using the DelaySeconds parameter</t>
+  </si>
+  <si>
+    <t>SQS - Long Polling</t>
+  </si>
+  <si>
+    <t>When a consumer requests messages from the queue, it can optionally “wait” for messages to arrive if there are none in the queue</t>
+  </si>
+  <si>
+    <t>LongPolling decreases the number of API calls made to SQS while increasing the efficiency and latency of your application</t>
+  </si>
+  <si>
+    <t>The wait time can be between 1 sec to 20 sec (20 sec preferable)</t>
+  </si>
+  <si>
+    <t>Long polling can be enabled at the queue level or at the API level using WaitTimeSeconds</t>
+  </si>
+  <si>
+    <t>SQS Extended Client</t>
+  </si>
+  <si>
+    <t>Message size limit is 256KB, how to send large messages, e.g. 1GB?</t>
+  </si>
+  <si>
+    <t>SQS will tell to consumer hey  go and retrieve bigger message from s3</t>
+  </si>
+  <si>
+    <t>SQS – Must know API</t>
+  </si>
+  <si>
+    <t>CreateQueue (MessageRetentionPeriod), DeleteQueue</t>
+  </si>
+  <si>
+    <t>PurgeQueue</t>
+  </si>
+  <si>
+    <t>delete all the messages in queue</t>
+  </si>
+  <si>
+    <t>SendMessage (DelaySeconds), ReceiveMessage, DeleteMessage</t>
+  </si>
+  <si>
+    <t>ReceiveMessageWaitTimeSeconds:</t>
+  </si>
+  <si>
+    <t>Long Polling</t>
+  </si>
+  <si>
+    <t>ChangeMessageVisibility</t>
+  </si>
+  <si>
+    <t>change the message timeout</t>
+  </si>
+  <si>
+    <t>Batch APIs for SendMessage, DeleteMessage, ChangeMessageVisibility</t>
+  </si>
+  <si>
+    <t>helps decrease your costs</t>
+  </si>
+  <si>
+    <t>SQS – FIFO Queue</t>
+  </si>
+  <si>
+    <t>removing duplicates , maintain ordering of message</t>
+  </si>
+  <si>
+    <t>Limited throughput</t>
+  </si>
+  <si>
+    <t>300 msg/s without batching, 3000 msg/s with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deduplication  of message </t>
+  </si>
+  <si>
+    <t>if we send same message twice to SQS within 5 minutes the second message will refuse.</t>
+  </si>
+  <si>
+    <t>Content-based deduplication</t>
+  </si>
+  <si>
+    <t>will do a SHA-256 hash of the message body</t>
+  </si>
+  <si>
+    <t>SQS FIFO – Message Grouping</t>
+  </si>
+  <si>
+    <t>• If you specify the same value of MessageGroupID in an SQS FIFO queue, you can only have one consumer, and all the messages are in order</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>Simple Notification Service</t>
+  </si>
+  <si>
+    <t>SNS uses the publish/sub model for push delivery of  messages</t>
+  </si>
+  <si>
+    <t>• The “event producer” only sends message to one SNS topic</t>
+  </si>
+  <si>
+    <t>Each subscriber to the topic will get all the messages</t>
+  </si>
+  <si>
+    <t>Up to 10,000,000 subscriptions per topic</t>
+  </si>
+  <si>
+    <t>100,000 topics limit</t>
+  </si>
+  <si>
+    <t>Subscribers can be</t>
+  </si>
+  <si>
+    <t>• SQS • HTTP / HTTPS  • Lambda • Emails • SMS messages • Mobile Notifications</t>
+  </si>
+  <si>
+    <t>AWS SNS – How to publish</t>
+  </si>
+  <si>
+    <t>• Topic Publish (using the SDK)</t>
+  </si>
+  <si>
+    <t>Create a topic • Create a subscription (or many) • Publish to the topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SNS – Security</t>
+  </si>
+  <si>
+    <t>Similar to SQS</t>
+  </si>
+  <si>
+    <t>SNS + SQS: Fan Out</t>
+  </si>
+  <si>
+    <t>• Push once in SNS, receive in all SQS queues that are subscribers</t>
+  </si>
+  <si>
+    <t>Ability to add more SQS subscribers over time</t>
+  </si>
+  <si>
+    <t>Make sure your SQS queue access policy allows for SNS to write</t>
+  </si>
+  <si>
+    <t>SNS cannot send messages to SQS FIFO queues (AWS limitation)</t>
+  </si>
+  <si>
+    <t>Application: S3 Events to multiple queues</t>
+  </si>
+  <si>
+    <t>If you want to send the same S3 event to many SQS queues, use fan-out</t>
+  </si>
+  <si>
+    <t>Kinesis</t>
+  </si>
+  <si>
+    <t>use for computation of real time data arrived through stream</t>
+  </si>
+  <si>
+    <t>Kinesis is a managed alternative to Apache Kafka</t>
+  </si>
+  <si>
+    <t>Great for application logs, metrics, IoT, clickstreams</t>
+  </si>
+  <si>
+    <t>Great for “real-time” big data</t>
+  </si>
+  <si>
+    <t>Great for streaming processing frameworks (Spark, NiFi, etc…)</t>
+  </si>
+  <si>
+    <t>Data is automatically replicated to 3 AZ</t>
+  </si>
+  <si>
+    <t>Kinesis Streams</t>
+  </si>
+  <si>
+    <t>Kinesis Analytics:</t>
+  </si>
+  <si>
+    <t>Kinesis Firehose:</t>
+  </si>
+  <si>
+    <t>Data produces into kinesis stream and kinesis analytic want to processing the data( computation in real time data) and store data in kinesis firehouse(s3,database)</t>
+  </si>
+  <si>
+    <t>Difference between sqs and kinesis</t>
+  </si>
+  <si>
+    <t>In sqs : once data is consumed data is gone but while in kinesis data is still there and it will expire after sometime</t>
+  </si>
+  <si>
+    <t>In sqs no order but in kinesis record are going to be in order per shards</t>
+  </si>
+  <si>
+    <t>Kinesis Streams Overview</t>
+  </si>
+  <si>
+    <t>Streams are divided in ordered Shards / Partitions</t>
+  </si>
+  <si>
+    <t>Data retention is 1 day by default, can go up to 7 days</t>
+  </si>
+  <si>
+    <t>Multiple applications can consume the same stream</t>
+  </si>
+  <si>
+    <t>Once data is inserted in Kinesis, it can’t be deleted (immutability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resharding </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> througput increases more and we increase shard while  someday throughput decreases then merging of shard occur( shard decrease)\</t>
+  </si>
+  <si>
+    <t>Kinesis Streams Shards</t>
+  </si>
+  <si>
+    <t>One stream is made of many different shards</t>
+  </si>
+  <si>
+    <t>1MB/s or 1000 messages/s at write PER SHARD</t>
+  </si>
+  <si>
+    <t>2MB/s at read PER SHARD</t>
+  </si>
+  <si>
+    <t>The number of shards can evolve over time (reshard / merge)</t>
+  </si>
+  <si>
+    <t>• Records are ordered per shard</t>
+  </si>
+  <si>
+    <t>Key is hashed to determine shard id</t>
+  </si>
+  <si>
+    <t>hot partition:--message are going in same shard and it will be overloadeds</t>
+  </si>
+  <si>
+    <t>AWS Kinesis API – Exceptions</t>
+  </si>
+  <si>
+    <t>ProvisionedThroughputExceeded Exceptions</t>
+  </si>
+  <si>
+    <t>Happens when sending more data (exceeding MB/s or TPS for any shard)</t>
+  </si>
+  <si>
+    <t>Make sure you don’t have a hot shard</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>• Retries with backoff • Increase shards (scaling) • Ensure your partition key is a good one</t>
+  </si>
+  <si>
+    <t>KCL</t>
+  </si>
+  <si>
+    <t>Kinesis Client Library</t>
+  </si>
+  <si>
+    <t>use to consume message from kinesis efficiently</t>
+  </si>
+  <si>
+    <t>collect and store data</t>
+  </si>
+  <si>
+    <t>perform real-time analytics on streams using SQL/  process and deliver data</t>
+  </si>
+  <si>
+    <t>load streams into S3, Redshift, ElasticSearch/ analyze streaming data</t>
+  </si>
+  <si>
+    <t>Kinesis KCL in Depth</t>
+  </si>
+  <si>
+    <t>Kinesis Client Library (KCL) is Java library that helps read record from a Kinesis Streams with distributed applications sharing the read workload</t>
+  </si>
+  <si>
+    <t>Rule: each shard is be read by only one KCL instance</t>
+  </si>
+  <si>
+    <t>KCL can run on EC2, Elastic Beanstalk, on Premise Application</t>
+  </si>
+  <si>
+    <t>Records are read in order at the shard level</t>
+  </si>
+  <si>
+    <t>Kinesis Security</t>
+  </si>
+  <si>
+    <t>Control access / authorization using IAM policies</t>
+  </si>
+  <si>
+    <t>Encryption in flight using HTTPS endpoints</t>
+  </si>
+  <si>
+    <t>Encryption at rest using KMS</t>
+  </si>
+  <si>
+    <t>Possibility to encrypt / decrypt data client side (harder)</t>
+  </si>
+  <si>
+    <t>VPC Endpoints available for Kinesis to access within VPC</t>
+  </si>
+  <si>
+    <t>SQS vs SNS vs Kinesis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3278,6 +4476,29 @@
       <sz val="8"/>
       <color rgb="FF686F7A"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3441,7 +4662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3563,6 +4784,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3663,10 +4888,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4055,7 +5301,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:rowOff>234950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4089,6 +5335,49 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69851</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4533900</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419851" y="24034750"/>
+          <a:ext cx="4464049" cy="2232025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4451,28 +5740,28 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="61" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="57"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -4494,7 +5783,7 @@
       <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="59" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4506,7 +5795,7 @@
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
@@ -4519,7 +5808,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4"/>
@@ -4531,7 +5820,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="52"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="4"/>
       <c r="C16" s="20" t="s">
         <v>29</v>
@@ -4541,7 +5830,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="4"/>
       <c r="C17" s="20" t="s">
         <v>30</v>
@@ -4551,7 +5840,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="18"/>
       <c r="C18" s="11" t="s">
         <v>31</v>
@@ -4561,9 +5850,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="56" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -4571,23 +5860,23 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="55"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="56"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="53"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="4"/>
       <c r="C22" s="27" t="s">
         <v>33</v>
@@ -4681,7 +5970,7 @@
         <v>483</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>527</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4691,7 +5980,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="72"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="4" t="s">
         <v>485</v>
       </c>
@@ -4699,7 +5988,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="72"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="4" t="s">
         <v>486</v>
       </c>
@@ -4715,7 +6004,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="80" t="s">
         <v>488</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -4725,7 +6014,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="78"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="4" t="s">
         <v>490</v>
       </c>
@@ -4733,7 +6022,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="78"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="4" t="s">
         <v>491</v>
       </c>
@@ -4751,7 +6040,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="78" t="s">
         <v>494</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4761,7 +6050,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="4" t="s">
         <v>496</v>
       </c>
@@ -4769,7 +6058,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="71"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="4" t="s">
         <v>497</v>
       </c>
@@ -4777,7 +6066,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="78" t="s">
         <v>498</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -4787,7 +6076,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="70"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="4" t="s">
         <v>500</v>
       </c>
@@ -4795,7 +6084,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="71"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="4" t="s">
         <v>501</v>
       </c>
@@ -4821,10 +6110,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="71" t="s">
         <v>506</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="4" t="s">
         <v>507</v>
       </c>
@@ -4833,16 +6122,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="70"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
         <v>510</v>
@@ -4871,7 +6160,7 @@
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="68" t="s">
         <v>515</v>
       </c>
       <c r="D23" s="46" t="s">
@@ -4881,7 +6170,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="68"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="4" t="s">
         <v>517</v>
       </c>
@@ -5017,7 +6306,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>541</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -5027,7 +6316,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="70"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="4" t="s">
         <v>543</v>
       </c>
@@ -5039,7 +6328,7 @@
       <c r="B6" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="4" t="s">
         <v>544</v>
       </c>
@@ -5061,7 +6350,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="71" t="s">
         <v>548</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -5071,7 +6360,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="70"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="4" t="s">
         <v>550</v>
       </c>
@@ -5079,7 +6368,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="70"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="4" t="s">
         <v>551</v>
       </c>
@@ -5087,7 +6376,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="71"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="4" t="s">
         <v>552</v>
       </c>
@@ -5095,7 +6384,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="71" t="s">
         <v>553</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -5105,7 +6394,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="4" t="s">
         <v>564</v>
       </c>
@@ -5113,7 +6402,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="70"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="4" t="s">
         <v>565</v>
       </c>
@@ -5121,7 +6410,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="71"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="4" t="s">
         <v>554</v>
       </c>
@@ -5205,7 +6494,7 @@
         <v>572</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="81" t="s">
         <v>573</v>
       </c>
       <c r="D23" t="s">
@@ -5215,7 +6504,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="82"/>
       <c r="D24" t="s">
         <v>575</v>
       </c>
@@ -5243,7 +6532,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="67" t="s">
         <v>579</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -5253,7 +6542,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="4" t="s">
         <v>581</v>
       </c>
@@ -5261,7 +6550,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="65"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="4" t="s">
         <v>582</v>
       </c>
@@ -5269,7 +6558,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="4" t="s">
         <v>583</v>
       </c>
@@ -5277,7 +6566,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="81" t="s">
         <v>584</v>
       </c>
       <c r="D31" t="s">
@@ -5287,7 +6576,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="81"/>
+      <c r="C32" s="83"/>
       <c r="D32" t="s">
         <v>586</v>
       </c>
@@ -5295,7 +6584,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="80"/>
+      <c r="C33" s="82"/>
       <c r="D33" t="s">
         <v>587</v>
       </c>
@@ -5303,7 +6592,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="81" t="s">
         <v>588</v>
       </c>
       <c r="D34" t="s">
@@ -5313,7 +6602,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="81"/>
+      <c r="C35" s="83"/>
       <c r="D35" t="s">
         <v>590</v>
       </c>
@@ -5329,7 +6618,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="71" t="s">
         <v>593</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -5339,7 +6628,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="71"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="4" t="s">
         <v>594</v>
       </c>
@@ -5357,7 +6646,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="71" t="s">
         <v>597</v>
       </c>
       <c r="D40" t="s">
@@ -5367,7 +6656,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="71"/>
+      <c r="C41" s="73"/>
       <c r="D41" t="s">
         <v>599</v>
       </c>
@@ -5449,7 +6738,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="71" t="s">
         <v>613</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -5459,7 +6748,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="70"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="4" t="s">
         <v>615</v>
       </c>
@@ -5467,7 +6756,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="70"/>
+      <c r="C52" s="72"/>
       <c r="D52" s="4" t="s">
         <v>616</v>
       </c>
@@ -5475,7 +6764,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="70"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="4" t="s">
         <v>617</v>
       </c>
@@ -5483,7 +6772,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="70"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="4" t="s">
         <v>618</v>
       </c>
@@ -5491,7 +6780,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="70"/>
+      <c r="C55" s="72"/>
       <c r="D55" s="4" t="s">
         <v>619</v>
       </c>
@@ -5499,7 +6788,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="70"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="4" t="s">
         <v>620</v>
       </c>
@@ -5507,7 +6796,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="71"/>
+      <c r="C57" s="73"/>
       <c r="D57" s="4" t="s">
         <v>621</v>
       </c>
@@ -5636,7 +6925,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="67" t="s">
         <v>631</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -5646,7 +6935,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="4" t="s">
         <v>633</v>
       </c>
@@ -5657,7 +6946,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="4" t="s">
         <v>634</v>
       </c>
@@ -5665,7 +6954,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="65"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="4" t="s">
         <v>635</v>
       </c>
@@ -5673,7 +6962,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>636</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -5683,7 +6972,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="65"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="4" t="s">
         <v>638</v>
       </c>
@@ -5691,7 +6980,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="65"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="4" t="s">
         <v>639</v>
       </c>
@@ -5699,7 +6988,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="6" t="s">
         <v>641</v>
       </c>
@@ -5710,7 +6999,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="4" t="s">
         <v>640</v>
       </c>
@@ -5718,7 +7007,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="53" t="s">
         <v>642</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -5728,7 +7017,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="52"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="4" t="s">
         <v>638</v>
       </c>
@@ -5736,7 +7025,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="4" t="s">
         <v>639</v>
       </c>
@@ -5744,7 +7033,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="52"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="4" t="s">
         <v>644</v>
       </c>
@@ -5752,7 +7041,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="52"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="4" t="s">
         <v>645</v>
       </c>
@@ -5763,7 +7052,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="52"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="4" t="s">
         <v>646</v>
       </c>
@@ -5771,7 +7060,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="53"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="4" t="s">
         <v>647</v>
       </c>
@@ -5829,7 +7118,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="81" t="s">
         <v>655</v>
       </c>
       <c r="D26" t="s">
@@ -5842,7 +7131,7 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="81"/>
+      <c r="C27" s="83"/>
       <c r="D27" t="s">
         <v>657</v>
       </c>
@@ -5850,7 +7139,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="81"/>
+      <c r="C28" s="83"/>
       <c r="D28" t="s">
         <v>661</v>
       </c>
@@ -5858,7 +7147,7 @@
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="81"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="39" t="s">
         <v>658</v>
       </c>
@@ -5866,7 +7155,7 @@
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="81"/>
+      <c r="C30" s="83"/>
       <c r="D30" s="39" t="s">
         <v>659</v>
       </c>
@@ -5874,7 +7163,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="80"/>
+      <c r="C31" s="82"/>
       <c r="D31" t="s">
         <v>660</v>
       </c>
@@ -5922,7 +7211,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="83" t="s">
         <v>670</v>
       </c>
       <c r="D36" t="s">
@@ -5932,7 +7221,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="81"/>
+      <c r="C37" s="83"/>
       <c r="D37" t="s">
         <v>672</v>
       </c>
@@ -5940,7 +7229,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="81"/>
+      <c r="C38" s="83"/>
       <c r="D38" t="s">
         <v>673</v>
       </c>
@@ -5948,7 +7237,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="81"/>
+      <c r="C39" s="83"/>
       <c r="D39" t="s">
         <v>674</v>
       </c>
@@ -5956,7 +7245,7 @@
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="80"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="39" t="s">
         <v>675</v>
       </c>
@@ -5974,7 +7263,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="84" t="s">
         <v>678</v>
       </c>
       <c r="D42" t="s">
@@ -5984,7 +7273,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="81"/>
+      <c r="C43" s="83"/>
       <c r="D43" t="s">
         <v>680</v>
       </c>
@@ -5992,7 +7281,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="80"/>
+      <c r="C44" s="82"/>
       <c r="D44" t="s">
         <v>681</v>
       </c>
@@ -6010,7 +7299,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="83" t="s">
         <v>684</v>
       </c>
       <c r="D46" t="s">
@@ -6020,7 +7309,7 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="80"/>
+      <c r="C47" s="82"/>
       <c r="D47" t="s">
         <v>686</v>
       </c>
@@ -6038,7 +7327,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="83" t="s">
         <v>689</v>
       </c>
       <c r="D49" t="s">
@@ -6048,7 +7337,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="81"/>
+      <c r="C50" s="83"/>
       <c r="D50" t="s">
         <v>691</v>
       </c>
@@ -6056,7 +7345,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="81"/>
+      <c r="C51" s="83"/>
       <c r="D51" t="s">
         <v>692</v>
       </c>
@@ -6064,7 +7353,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="80"/>
+      <c r="C52" s="82"/>
       <c r="D52" t="s">
         <v>693</v>
       </c>
@@ -6088,7 +7377,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="81" t="s">
         <v>696</v>
       </c>
       <c r="D55" t="s">
@@ -6098,7 +7387,7 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="81"/>
+      <c r="C56" s="83"/>
       <c r="D56" s="4" t="s">
         <v>698</v>
       </c>
@@ -6106,7 +7395,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="81"/>
+      <c r="C57" s="83"/>
       <c r="D57" t="s">
         <v>701</v>
       </c>
@@ -6114,7 +7403,7 @@
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="81"/>
+      <c r="C58" s="83"/>
       <c r="D58" s="6" t="s">
         <v>699</v>
       </c>
@@ -6122,7 +7411,7 @@
     <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="80"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="6" t="s">
         <v>700</v>
       </c>
@@ -6267,11 +7556,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>715</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>716</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -6279,23 +7568,23 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="65"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="4" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="65"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="4" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>720</v>
@@ -6305,9 +7594,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="67" t="s">
         <v>722</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -6315,23 +7604,23 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="65"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="4" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="77"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="65"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="4" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="77"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>726</v>
@@ -6341,9 +7630,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="77"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="67" t="s">
         <v>728</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -6351,17 +7640,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="4" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="67" t="s">
         <v>731</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -6369,23 +7658,23 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="77"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="4" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="77"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="65"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="4" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="77"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="4"/>
       <c r="C15" s="48" t="s">
         <v>735</v>
@@ -6395,9 +7684,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="67" t="s">
         <v>737</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -6405,25 +7694,25 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="65"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="4" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="77"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="65"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="6" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="77"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="81" t="s">
         <v>741</v>
       </c>
       <c r="D19" t="s">
@@ -6431,9 +7720,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="75"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="80"/>
+      <c r="C20" s="82"/>
       <c r="D20" t="s">
         <v>743</v>
       </c>
@@ -6491,7 +7780,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="67" t="s">
         <v>754</v>
       </c>
       <c r="D26" t="s">
@@ -6501,7 +7790,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="67"/>
       <c r="D27" t="s">
         <v>756</v>
       </c>
@@ -6509,7 +7798,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" t="s">
         <v>757</v>
       </c>
@@ -6517,7 +7806,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="67" t="s">
         <v>758</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -6527,7 +7816,7 @@
     <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="65"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="6" t="s">
         <v>760</v>
       </c>
@@ -6535,7 +7824,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -6545,7 +7834,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="65"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="4" t="s">
         <v>762</v>
       </c>
@@ -6553,7 +7842,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="65"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="4" t="s">
         <v>763</v>
       </c>
@@ -6561,7 +7850,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="65"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="4" t="s">
         <v>764</v>
       </c>
@@ -6571,7 +7860,7 @@
         <v>765</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="68" t="s">
         <v>766</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -6581,7 +7870,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="67"/>
+      <c r="C36" s="69"/>
       <c r="D36" t="s">
         <v>769</v>
       </c>
@@ -6589,7 +7878,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="67"/>
+      <c r="C37" s="69"/>
       <c r="D37" t="s">
         <v>770</v>
       </c>
@@ -6597,7 +7886,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="68"/>
+      <c r="C38" s="70"/>
       <c r="D38" t="s">
         <v>771</v>
       </c>
@@ -6625,7 +7914,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="67" t="s">
         <v>775</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -6635,7 +7924,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="65"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="4" t="s">
         <v>777</v>
       </c>
@@ -6643,7 +7932,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="67" t="s">
         <v>778</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -6653,7 +7942,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="65"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="4" t="s">
         <v>780</v>
       </c>
@@ -6661,7 +7950,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="65"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="4" t="s">
         <v>782</v>
       </c>
@@ -6669,7 +7958,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="65"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="4" t="s">
         <v>781</v>
       </c>
@@ -6695,7 +7984,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="85" t="s">
         <v>787</v>
       </c>
       <c r="B49" s="4"/>
@@ -6704,7 +7993,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="84"/>
+      <c r="A50" s="86"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" t="s">
@@ -6712,7 +8001,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="84"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="4"/>
       <c r="C51" t="s">
         <v>790</v>
@@ -6722,7 +8011,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="84"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" t="s">
@@ -6730,7 +8019,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="85"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
         <v>794</v>
@@ -6740,7 +8029,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="88" t="s">
         <v>795</v>
       </c>
       <c r="B54" s="4"/>
@@ -6752,7 +8041,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="84"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" t="s">
@@ -6760,7 +8049,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="85"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" t="s">
@@ -6919,7 +8208,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="87">
+      <c r="A72" s="52">
         <v>8</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -6931,6 +8220,14 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C6:C8"/>
@@ -6938,14 +8235,6 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6967,7 +8256,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>71</xdr:row>
-                <xdr:rowOff>222250</xdr:rowOff>
+                <xdr:rowOff>234950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6985,7 +8274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
@@ -7024,7 +8313,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="67" t="s">
         <v>826</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -7034,7 +8323,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="65"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="4" t="s">
         <v>827</v>
       </c>
@@ -7042,7 +8331,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="65"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="4" t="s">
         <v>830</v>
       </c>
@@ -7050,7 +8339,7 @@
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="58"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="6" t="s">
         <v>829</v>
       </c>
@@ -7058,7 +8347,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="89" t="s">
         <v>831</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -7068,7 +8357,7 @@
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="67"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="6" t="s">
         <v>833</v>
       </c>
@@ -7076,7 +8365,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="67"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="4" t="s">
         <v>834</v>
       </c>
@@ -7084,7 +8373,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="68"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="4" t="s">
         <v>835</v>
       </c>
@@ -7200,7 +8489,7 @@
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="67" t="s">
         <v>356</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -7210,7 +8499,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="4" t="s">
         <v>857</v>
       </c>
@@ -7264,7 +8553,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="53" t="s">
         <v>866</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -7274,7 +8563,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="53"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="4" t="s">
         <v>868</v>
       </c>
@@ -7312,7 +8601,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="71" t="s">
         <v>874</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -7322,7 +8611,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="71"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="4" t="s">
         <v>876</v>
       </c>
@@ -7338,7 +8627,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="71" t="s">
         <v>878</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -7348,7 +8637,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="71"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="4" t="s">
         <v>880</v>
       </c>
@@ -7356,7 +8645,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="81" t="s">
         <v>881</v>
       </c>
       <c r="D39" t="s">
@@ -7366,7 +8655,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
-      <c r="C40" s="81"/>
+      <c r="C40" s="83"/>
       <c r="D40" t="s">
         <v>883</v>
       </c>
@@ -7384,7 +8673,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="71" t="s">
         <v>886</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -7394,7 +8683,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="71"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="4" t="s">
         <v>888</v>
       </c>
@@ -7402,7 +8691,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="68" t="s">
         <v>889</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -7412,7 +8701,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="68"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="4" t="s">
         <v>891</v>
       </c>
@@ -7453,17 +8742,3027 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.36328125" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
+        <v>895</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="80"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="80"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="80"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="67" t="s">
+        <v>900</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="94" t="s">
+        <v>909</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="94" t="s">
+        <v>915</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="94" t="s">
+        <v>920</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="67" t="s">
+        <v>931</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="67" t="s">
+        <v>940</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="67" t="s">
+        <v>918</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="94" t="s">
+        <v>945</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="95" t="s">
+        <v>949</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D40" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
+        <v>953</v>
+      </c>
+      <c r="D41" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>954</v>
+      </c>
+      <c r="D42" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" t="s">
+        <v>955</v>
+      </c>
+      <c r="D43" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>956</v>
+      </c>
+      <c r="D44" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>957</v>
+      </c>
+      <c r="D45" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
+        <v>958</v>
+      </c>
+      <c r="D46" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D48" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="71" t="s">
+        <v>918</v>
+      </c>
+      <c r="D50" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="73"/>
+      <c r="D51" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>972</v>
+      </c>
+      <c r="D53" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" t="s">
+        <v>974</v>
+      </c>
+      <c r="D54" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
+        <v>977</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="15" t="s">
+        <v>987</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="51" t="s">
+        <v>989</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="51" t="s">
+        <v>991</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="84" t="s">
+        <v>995</v>
+      </c>
+      <c r="D65" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="83"/>
+      <c r="D66" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="83"/>
+      <c r="D67" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="94" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="67" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="67" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="92"/>
+      <c r="D88" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="67" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="23"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="51" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="40" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="67" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="67"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="67"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="71" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="71" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="71" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="4">
+        <v>1</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="4">
+        <v>2</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="4">
+        <v>3</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C24:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="68" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="69"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="96" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="69"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="94" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="69"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="69"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="69"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="69"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="69"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="69"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="69"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="69"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="67" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="69"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="69"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="69"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="69"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="69"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="94" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="67" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="94"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="94"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="94"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="94"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="67" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="94"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="94"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="94" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D35" s="97" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="6" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="97" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="97" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="94" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="94" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="6" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="23"/>
+      <c r="C54" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="98" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="40" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C64" s="75" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="4"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="70"/>
+      <c r="D67" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="70"/>
+      <c r="C68" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="94" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="15" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="67" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="4" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="99" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="6" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="67" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="4" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="23"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="51" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D92" s="96" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="67" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="4" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="51" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="67" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D104" s="51" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="84" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="90"/>
+      <c r="D106" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="90"/>
+      <c r="D107" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="91"/>
+      <c r="D108" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="81" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="83"/>
+      <c r="D110" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="83"/>
+      <c r="D111" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="83"/>
+      <c r="D112" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="82"/>
+      <c r="D113" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D114" s="23"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="100"/>
+      <c r="B115" s="100"/>
+      <c r="C115" s="100"/>
+      <c r="D115" s="100"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="100"/>
+      <c r="B116" s="100"/>
+      <c r="C116" s="100"/>
+      <c r="D116" s="100"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="100"/>
+      <c r="B117" s="100"/>
+      <c r="C117" s="100"/>
+      <c r="D117" s="100"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="100"/>
+      <c r="B118" s="100"/>
+      <c r="C118" s="100"/>
+      <c r="D118" s="100"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="100"/>
+      <c r="B119" s="100"/>
+      <c r="C119" s="100"/>
+      <c r="D119" s="100"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="100"/>
+      <c r="B120" s="100"/>
+      <c r="C120" s="100"/>
+      <c r="D120" s="100"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="100"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="100"/>
+      <c r="D121" s="100"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="100"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="100"/>
+      <c r="D122" s="100"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="100"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="100"/>
+      <c r="D123" s="100"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="100"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="100"/>
+      <c r="D124" s="100"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="100"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="100"/>
+      <c r="D125" s="100"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="101"/>
+      <c r="B126" s="101"/>
+      <c r="C126" s="101"/>
+      <c r="D126" s="101"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="100"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="100"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="100"/>
+      <c r="B128" s="100"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="100"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="100"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="100"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="100"/>
+      <c r="B130" s="100"/>
+      <c r="C130" s="100"/>
+      <c r="D130" s="100"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="100"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="100"/>
+      <c r="D131" s="100"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="100"/>
+      <c r="B132" s="100"/>
+      <c r="C132" s="100"/>
+      <c r="D132" s="100"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="100"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="100"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="100"/>
+      <c r="B134" s="100"/>
+      <c r="C134" s="100"/>
+      <c r="D134" s="100"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="100"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="100"/>
+      <c r="D135" s="100"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="100"/>
+      <c r="B136" s="100"/>
+      <c r="C136" s="100"/>
+      <c r="D136" s="100"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="100"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="100"/>
+      <c r="D137" s="100"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="100"/>
+      <c r="B138" s="100"/>
+      <c r="C138" s="100"/>
+      <c r="D138" s="100"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="100"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="100"/>
+      <c r="D139" s="100"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="100"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="100"/>
+      <c r="D140" s="100"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="100"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="100"/>
+      <c r="D141" s="100"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="100"/>
+      <c r="B142" s="100"/>
+      <c r="C142" s="100"/>
+      <c r="D142" s="100"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="100"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="100"/>
+      <c r="D143" s="100"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="100"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="100"/>
+      <c r="D144" s="100"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="100"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="100"/>
+      <c r="D145" s="100"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="100"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="100"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="100"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="100"/>
+      <c r="D147" s="100"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="100"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="100"/>
+      <c r="D148" s="100"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="100"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="100"/>
+      <c r="D149" s="100"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="100"/>
+      <c r="B150" s="100"/>
+      <c r="C150" s="100"/>
+      <c r="D150" s="100"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="100"/>
+      <c r="B151" s="100"/>
+      <c r="C151" s="100"/>
+      <c r="D151" s="100"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="100"/>
+      <c r="B152" s="100"/>
+      <c r="C152" s="100"/>
+      <c r="D152" s="100"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="100"/>
+      <c r="B153" s="100"/>
+      <c r="C153" s="100"/>
+      <c r="D153" s="100"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="100"/>
+      <c r="B154" s="100"/>
+      <c r="C154" s="100"/>
+      <c r="D154" s="100"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="100"/>
+      <c r="B155" s="100"/>
+      <c r="C155" s="100"/>
+      <c r="D155" s="100"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="100"/>
+      <c r="B156" s="100"/>
+      <c r="C156" s="100"/>
+      <c r="D156" s="100"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="100"/>
+      <c r="B157" s="100"/>
+      <c r="C157" s="100"/>
+      <c r="D157" s="100"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="100"/>
+      <c r="B158" s="100"/>
+      <c r="C158" s="100"/>
+      <c r="D158" s="100"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="100"/>
+      <c r="B159" s="100"/>
+      <c r="C159" s="100"/>
+      <c r="D159" s="100"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="100"/>
+      <c r="B160" s="100"/>
+      <c r="C160" s="100"/>
+      <c r="D160" s="100"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="100"/>
+      <c r="B161" s="100"/>
+      <c r="C161" s="100"/>
+      <c r="D161" s="100"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="100"/>
+      <c r="B162" s="100"/>
+      <c r="C162" s="100"/>
+      <c r="D162" s="100"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="100"/>
+      <c r="B163" s="100"/>
+      <c r="C163" s="100"/>
+      <c r="D163" s="100"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="100"/>
+      <c r="B164" s="100"/>
+      <c r="C164" s="100"/>
+      <c r="D164" s="100"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="100"/>
+      <c r="B165" s="100"/>
+      <c r="C165" s="100"/>
+      <c r="D165" s="100"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="100"/>
+      <c r="B166" s="100"/>
+      <c r="C166" s="100"/>
+      <c r="D166" s="100"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="100"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="100"/>
+      <c r="D167" s="100"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="100"/>
+      <c r="B168" s="100"/>
+      <c r="C168" s="100"/>
+      <c r="D168" s="100"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="100"/>
+      <c r="B169" s="100"/>
+      <c r="C169" s="100"/>
+      <c r="D169" s="100"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="100"/>
+      <c r="B170" s="100"/>
+      <c r="C170" s="100"/>
+      <c r="D170" s="100"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="100"/>
+      <c r="B171" s="100"/>
+      <c r="C171" s="100"/>
+      <c r="D171" s="100"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="100"/>
+      <c r="B172" s="100"/>
+      <c r="C172" s="100"/>
+      <c r="D172" s="100"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="100"/>
+      <c r="B173" s="100"/>
+      <c r="C173" s="100"/>
+      <c r="D173" s="100"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="100"/>
+      <c r="B174" s="100"/>
+      <c r="C174" s="100"/>
+      <c r="D174" s="100"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="100"/>
+      <c r="B175" s="100"/>
+      <c r="C175" s="100"/>
+      <c r="D175" s="100"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="100"/>
+      <c r="B176" s="100"/>
+      <c r="C176" s="100"/>
+      <c r="D176" s="100"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="100"/>
+      <c r="B177" s="100"/>
+      <c r="C177" s="100"/>
+      <c r="D177" s="100"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="100"/>
+      <c r="B178" s="100"/>
+      <c r="C178" s="100"/>
+      <c r="D178" s="100"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="100"/>
+      <c r="B179" s="100"/>
+      <c r="C179" s="100"/>
+      <c r="D179" s="100"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="100"/>
+      <c r="B180" s="100"/>
+      <c r="C180" s="100"/>
+      <c r="D180" s="100"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="100"/>
+      <c r="B181" s="100"/>
+      <c r="C181" s="100"/>
+      <c r="D181" s="100"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="100"/>
+      <c r="B182" s="100"/>
+      <c r="C182" s="100"/>
+      <c r="D182" s="100"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="100"/>
+      <c r="B183" s="100"/>
+      <c r="C183" s="100"/>
+      <c r="D183" s="100"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="100"/>
+      <c r="B184" s="100"/>
+      <c r="C184" s="100"/>
+      <c r="D184" s="100"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="100"/>
+      <c r="B185" s="100"/>
+      <c r="C185" s="100"/>
+      <c r="D185" s="100"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="100"/>
+      <c r="B186" s="100"/>
+      <c r="C186" s="100"/>
+      <c r="D186" s="100"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="100"/>
+      <c r="B187" s="100"/>
+      <c r="C187" s="100"/>
+      <c r="D187" s="100"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="100"/>
+      <c r="B188" s="100"/>
+      <c r="C188" s="100"/>
+      <c r="D188" s="100"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="100"/>
+      <c r="B189" s="100"/>
+      <c r="C189" s="100"/>
+      <c r="D189" s="100"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="100"/>
+      <c r="B190" s="100"/>
+      <c r="C190" s="100"/>
+      <c r="D190" s="100"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="100"/>
+      <c r="B191" s="100"/>
+      <c r="C191" s="100"/>
+      <c r="D191" s="100"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="100"/>
+      <c r="B192" s="100"/>
+      <c r="C192" s="100"/>
+      <c r="D192" s="100"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="100"/>
+      <c r="B193" s="100"/>
+      <c r="C193" s="100"/>
+      <c r="D193" s="100"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="100"/>
+      <c r="B194" s="100"/>
+      <c r="C194" s="100"/>
+      <c r="D194" s="100"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="100"/>
+      <c r="B195" s="100"/>
+      <c r="C195" s="100"/>
+      <c r="D195" s="100"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="100"/>
+      <c r="B196" s="100"/>
+      <c r="C196" s="100"/>
+      <c r="D196" s="100"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="100"/>
+      <c r="B197" s="100"/>
+      <c r="C197" s="100"/>
+      <c r="D197" s="100"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="100"/>
+      <c r="B198" s="100"/>
+      <c r="C198" s="100"/>
+      <c r="D198" s="100"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="100"/>
+      <c r="B199" s="100"/>
+      <c r="C199" s="100"/>
+      <c r="D199" s="100"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="100"/>
+      <c r="B200" s="100"/>
+      <c r="C200" s="100"/>
+      <c r="D200" s="100"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="100"/>
+      <c r="B201" s="100"/>
+      <c r="C201" s="100"/>
+      <c r="D201" s="100"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="100"/>
+      <c r="B202" s="100"/>
+      <c r="C202" s="100"/>
+      <c r="D202" s="100"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="100"/>
+      <c r="B203" s="100"/>
+      <c r="C203" s="100"/>
+      <c r="D203" s="100"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="100"/>
+      <c r="B204" s="100"/>
+      <c r="C204" s="100"/>
+      <c r="D204" s="100"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="100"/>
+      <c r="B205" s="100"/>
+      <c r="C205" s="100"/>
+      <c r="D205" s="100"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="100"/>
+      <c r="B206" s="100"/>
+      <c r="C206" s="100"/>
+      <c r="D206" s="100"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="100"/>
+      <c r="B207" s="100"/>
+      <c r="C207" s="100"/>
+      <c r="D207" s="100"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="100"/>
+      <c r="B208" s="100"/>
+      <c r="C208" s="100"/>
+      <c r="D208" s="100"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="100"/>
+      <c r="B209" s="100"/>
+      <c r="C209" s="100"/>
+      <c r="D209" s="100"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="100"/>
+      <c r="B210" s="100"/>
+      <c r="C210" s="100"/>
+      <c r="D210" s="100"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="100"/>
+      <c r="B211" s="100"/>
+      <c r="C211" s="100"/>
+      <c r="D211" s="100"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="100"/>
+      <c r="B212" s="100"/>
+      <c r="C212" s="100"/>
+      <c r="D212" s="100"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="100"/>
+      <c r="B213" s="100"/>
+      <c r="C213" s="100"/>
+      <c r="D213" s="100"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="100"/>
+      <c r="B214" s="100"/>
+      <c r="C214" s="100"/>
+      <c r="D214" s="100"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="100"/>
+      <c r="B215" s="100"/>
+      <c r="C215" s="100"/>
+      <c r="D215" s="100"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="100"/>
+      <c r="B216" s="100"/>
+      <c r="C216" s="100"/>
+      <c r="D216" s="100"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="100"/>
+      <c r="B217" s="100"/>
+      <c r="C217" s="100"/>
+      <c r="D217" s="100"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="100"/>
+      <c r="B218" s="100"/>
+      <c r="C218" s="100"/>
+      <c r="D218" s="100"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="100"/>
+      <c r="B219" s="100"/>
+      <c r="C219" s="100"/>
+      <c r="D219" s="100"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="100"/>
+      <c r="B220" s="100"/>
+      <c r="C220" s="100"/>
+      <c r="D220" s="100"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="100"/>
+      <c r="B221" s="100"/>
+      <c r="C221" s="100"/>
+      <c r="D221" s="100"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="100"/>
+      <c r="B222" s="100"/>
+      <c r="C222" s="100"/>
+      <c r="D222" s="100"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="100"/>
+      <c r="B223" s="100"/>
+      <c r="C223" s="100"/>
+      <c r="D223" s="100"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="100"/>
+      <c r="B224" s="100"/>
+      <c r="C224" s="100"/>
+      <c r="D224" s="100"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" s="100"/>
+      <c r="B225" s="100"/>
+      <c r="C225" s="100"/>
+      <c r="D225" s="100"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" s="100"/>
+      <c r="B226" s="100"/>
+      <c r="C226" s="100"/>
+      <c r="D226" s="100"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="100"/>
+      <c r="B227" s="100"/>
+      <c r="C227" s="100"/>
+      <c r="D227" s="100"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" s="100"/>
+      <c r="B228" s="100"/>
+      <c r="C228" s="100"/>
+      <c r="D228" s="100"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" s="100"/>
+      <c r="B229" s="100"/>
+      <c r="C229" s="100"/>
+      <c r="D229" s="100"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" s="100"/>
+      <c r="B230" s="100"/>
+      <c r="C230" s="100"/>
+      <c r="D230" s="100"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" s="100"/>
+      <c r="B231" s="100"/>
+      <c r="C231" s="100"/>
+      <c r="D231" s="100"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="100"/>
+      <c r="B232" s="100"/>
+      <c r="C232" s="100"/>
+      <c r="D232" s="100"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" s="100"/>
+      <c r="B233" s="100"/>
+      <c r="C233" s="100"/>
+      <c r="D233" s="100"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" s="100"/>
+      <c r="B234" s="100"/>
+      <c r="C234" s="100"/>
+      <c r="D234" s="100"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" s="100"/>
+      <c r="B235" s="100"/>
+      <c r="C235" s="100"/>
+      <c r="D235" s="100"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" s="100"/>
+      <c r="B236" s="100"/>
+      <c r="C236" s="100"/>
+      <c r="D236" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B11:B39"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A27:A33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
@@ -7577,7 +11876,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="63" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7591,7 +11890,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="7" t="s">
         <v>67</v>
       </c>
@@ -7603,7 +11902,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="9" t="s">
         <v>69</v>
       </c>
@@ -7653,37 +11952,37 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="65" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="66"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="4"/>
@@ -7695,7 +11994,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>91</v>
@@ -7705,7 +12004,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>92</v>
@@ -7796,13 +12095,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>109</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -7810,32 +12109,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="30" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="33" t="s">
         <v>138</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="13" t="s">
         <v>112</v>
       </c>
@@ -7844,8 +12143,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="13" t="s">
         <v>113</v>
       </c>
@@ -7854,8 +12153,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="13" t="s">
         <v>114</v>
       </c>
@@ -7864,8 +12163,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="13" t="s">
         <v>115</v>
       </c>
@@ -8009,7 +12308,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -8021,7 +12320,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="4"/>
       <c r="C3" s="31" t="s">
         <v>142</v>
@@ -8031,7 +12330,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>144</v>
@@ -8041,7 +12340,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>146</v>
@@ -8049,9 +12348,9 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="71" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -8059,17 +12358,17 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="71"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="71" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -8077,23 +12376,23 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="67"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="70"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="67"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="71"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>154</v>
@@ -8103,7 +12402,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="68" t="s">
         <v>156</v>
       </c>
       <c r="B12" s="4"/>
@@ -8113,9 +12412,9 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="67" t="s">
         <v>158</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -8123,41 +12422,41 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="65"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="67"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="65"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="67"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="65"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="65"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>164</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -8165,39 +12464,39 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="70"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>170</v>
@@ -8207,7 +12506,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="68" t="s">
         <v>172</v>
       </c>
       <c r="B24" s="4"/>
@@ -8219,9 +12518,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="71" t="s">
         <v>174</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -8229,17 +12528,17 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
+      <c r="A27" s="69"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="71" t="s">
         <v>177</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -8247,17 +12546,17 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="70"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="68"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="71"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="4" t="s">
         <v>180</v>
       </c>
@@ -8361,7 +12660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -8484,7 +12783,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="64" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -8494,7 +12793,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="62"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="4" t="s">
         <v>208</v>
       </c>
@@ -8502,7 +12801,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="62"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="4" t="s">
         <v>209</v>
       </c>
@@ -8510,7 +12809,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="71" t="s">
         <v>210</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -8520,7 +12819,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="4" t="s">
         <v>212</v>
       </c>
@@ -8528,7 +12827,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="71"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="4" t="s">
         <v>213</v>
       </c>
@@ -8536,7 +12835,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>214</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -8546,7 +12845,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="71"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="4" t="s">
         <v>216</v>
       </c>
@@ -8724,10 +13023,10 @@
       <c r="A8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="67" t="s">
         <v>243</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -8736,16 +13035,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="4" t="s">
         <v>246</v>
       </c>
@@ -8753,7 +13052,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="67" t="s">
         <v>247</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -8763,7 +13062,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="4" t="s">
         <v>249</v>
       </c>
@@ -8783,7 +13082,7 @@
         <v>251</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="71" t="s">
         <v>262</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -8793,7 +13092,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="71"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="4" t="s">
         <v>253</v>
       </c>
@@ -8817,7 +13116,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="74" t="s">
         <v>261</v>
       </c>
       <c r="D18" s="21"/>
@@ -8825,18 +13124,18 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="72"/>
+      <c r="C20" s="74"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="74"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
@@ -8894,7 +13193,7 @@
       <c r="B2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>265</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -8904,7 +13203,7 @@
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="6" t="s">
         <v>332</v>
       </c>
@@ -8914,7 +13213,7 @@
         <v>266</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>267</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -8924,7 +13223,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="68"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="4" t="s">
         <v>268</v>
       </c>
@@ -8934,7 +13233,7 @@
         <v>269</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>270</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -8944,7 +13243,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="4" t="s">
         <v>272</v>
       </c>
@@ -8952,7 +13251,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="68"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="4" t="s">
         <v>273</v>
       </c>
@@ -8962,7 +13261,7 @@
         <v>276</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="68" t="s">
         <v>277</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -8972,7 +13271,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="67"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="4" t="s">
         <v>279</v>
       </c>
@@ -8980,7 +13279,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="68"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="4" t="s">
         <v>280</v>
       </c>
@@ -8998,7 +13297,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="71" t="s">
         <v>283</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -9008,7 +13307,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="70"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="4" t="s">
         <v>285</v>
       </c>
@@ -9016,7 +13315,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="71"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="4" t="s">
         <v>286</v>
       </c>
@@ -9024,7 +13323,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>287</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -9034,7 +13333,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="4" t="s">
         <v>290</v>
       </c>
@@ -9042,7 +13341,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="70"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="4" t="s">
         <v>331</v>
       </c>
@@ -9050,7 +13349,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="71"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="4" t="s">
         <v>289</v>
       </c>
@@ -9058,7 +13357,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="71" t="s">
         <v>291</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -9068,7 +13367,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="4" t="s">
         <v>293</v>
       </c>
@@ -9076,7 +13375,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="70"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="4" t="s">
         <v>295</v>
       </c>
@@ -9084,7 +13383,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="71"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="4" t="s">
         <v>294</v>
       </c>
@@ -9092,7 +13391,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="71" t="s">
         <v>296</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -9102,7 +13401,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="70"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="4" t="s">
         <v>298</v>
       </c>
@@ -9110,7 +13409,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="71"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="4" t="s">
         <v>299</v>
       </c>
@@ -9228,7 +13527,7 @@
       <c r="B39" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="75" t="s">
         <v>320</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -9238,7 +13537,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="67"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="4" t="s">
         <v>322</v>
       </c>
@@ -9246,7 +13545,7 @@
     <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="68"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="6" t="s">
         <v>323</v>
       </c>
@@ -9262,7 +13561,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="71" t="s">
         <v>325</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -9272,7 +13571,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="71"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="4" t="s">
         <v>327</v>
       </c>
@@ -9280,7 +13579,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="71" t="s">
         <v>328</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -9290,24 +13589,24 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="71"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="4" t="s">
         <v>330</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9346,13 +13645,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="68" t="s">
         <v>335</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -9360,33 +13659,33 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="6" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="4" t="s">
         <v>342</v>
       </c>
@@ -9395,16 +13694,16 @@
       <c r="A7" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="6" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="4" t="s">
         <v>341</v>
       </c>
@@ -9446,7 +13745,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="68" t="s">
         <v>352</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -9456,7 +13755,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="4" t="s">
         <v>354</v>
       </c>
@@ -9464,7 +13763,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="68"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="4" t="s">
         <v>355</v>
       </c>
@@ -9512,7 +13811,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="71" t="s">
         <v>363</v>
       </c>
       <c r="D19" t="s">
@@ -9522,7 +13821,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="70"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="4" t="s">
         <v>366</v>
       </c>
@@ -9530,7 +13829,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="4" t="s">
         <v>367</v>
       </c>
@@ -9538,7 +13837,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="71"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="4" t="s">
         <v>364</v>
       </c>
@@ -9546,7 +13845,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="67" t="s">
         <v>369</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -9556,7 +13855,7 @@
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="6" t="s">
         <v>371</v>
       </c>
@@ -9564,7 +13863,7 @@
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="65"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="6" t="s">
         <v>372</v>
       </c>
@@ -9572,7 +13871,7 @@
     <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="6" t="s">
         <v>373</v>
       </c>
@@ -9580,7 +13879,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="65"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="4" t="s">
         <v>374</v>
       </c>
@@ -9588,7 +13887,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="65"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="4" t="s">
         <v>375</v>
       </c>
@@ -9596,7 +13895,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="71" t="s">
         <v>376</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -9606,7 +13905,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="70"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="4" t="s">
         <v>378</v>
       </c>
@@ -9614,7 +13913,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="4" t="s">
         <v>379</v>
       </c>
@@ -9622,7 +13921,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="70"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="4" t="s">
         <v>380</v>
       </c>
@@ -9630,7 +13929,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="71"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="4" t="s">
         <v>381</v>
       </c>
@@ -9638,7 +13937,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="71" t="s">
         <v>382</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -9648,7 +13947,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="70"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="4" t="s">
         <v>384</v>
       </c>
@@ -9656,7 +13955,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="71"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="4" t="s">
         <v>385</v>
       </c>
@@ -9753,7 +14052,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="68" t="s">
         <v>392</v>
       </c>
       <c r="B2" s="4"/>
@@ -9763,7 +14062,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>393</v>
@@ -9773,7 +14072,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>395</v>
@@ -9783,7 +14082,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>396</v>
@@ -9793,7 +14092,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>399</v>
@@ -9803,7 +14102,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>402</v>
@@ -9863,7 +14162,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="67" t="s">
         <v>416</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -9873,7 +14172,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="4" t="s">
         <v>417</v>
       </c>
@@ -9881,7 +14180,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="67" t="s">
         <v>418</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -9891,7 +14190,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="65"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="4" t="s">
         <v>419</v>
       </c>
@@ -9917,7 +14216,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="71" t="s">
         <v>425</v>
       </c>
       <c r="D18" t="s">
@@ -9927,7 +14226,7 @@
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="39" t="s">
         <v>426</v>
       </c>
@@ -9935,7 +14234,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="70"/>
+      <c r="C20" s="72"/>
       <c r="D20" t="s">
         <v>427</v>
       </c>
@@ -9943,7 +14242,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" t="s">
         <v>432</v>
       </c>
@@ -9951,7 +14250,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="71" t="s">
         <v>428</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -9961,7 +14260,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="4" t="s">
         <v>430</v>
       </c>
@@ -9969,7 +14268,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="70"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="4" t="s">
         <v>431</v>
       </c>
@@ -9977,7 +14276,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="75"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="4" t="s">
         <v>433</v>
       </c>
@@ -9985,7 +14284,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="71" t="s">
         <v>434</v>
       </c>
       <c r="D26" t="s">
@@ -9995,7 +14294,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" t="s">
         <v>436</v>
       </c>
@@ -10003,7 +14302,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="70"/>
+      <c r="C28" s="72"/>
       <c r="D28" t="s">
         <v>437</v>
       </c>
@@ -10011,7 +14310,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" t="s">
         <v>438</v>
       </c>
@@ -10019,7 +14318,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="70"/>
+      <c r="C30" s="72"/>
       <c r="D30" t="s">
         <v>439</v>
       </c>
@@ -10027,7 +14326,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="71"/>
+      <c r="C31" s="73"/>
       <c r="D31" t="s">
         <v>440</v>
       </c>
@@ -10035,7 +14334,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="71" t="s">
         <v>441</v>
       </c>
       <c r="D32" t="s">
@@ -10045,7 +14344,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="71"/>
+      <c r="C33" s="73"/>
       <c r="D33" t="s">
         <v>443</v>
       </c>
@@ -10053,7 +14352,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="71" t="s">
         <v>444</v>
       </c>
       <c r="D34" t="s">
@@ -10063,7 +14362,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="70"/>
+      <c r="C35" s="72"/>
       <c r="D35" t="s">
         <v>446</v>
       </c>
@@ -10071,7 +14370,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="71"/>
+      <c r="C36" s="73"/>
       <c r="D36" t="s">
         <v>447</v>
       </c>
@@ -10089,7 +14388,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="71" t="s">
         <v>450</v>
       </c>
       <c r="D38" t="s">
@@ -10099,7 +14398,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="71"/>
+      <c r="C39" s="73"/>
       <c r="D39" t="s">
         <v>452</v>
       </c>
@@ -10145,7 +14444,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="78" t="s">
         <v>461</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -10155,7 +14454,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="70"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="4" t="s">
         <v>463</v>
       </c>
@@ -10163,7 +14462,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="71"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="4" t="s">
         <v>464</v>
       </c>
@@ -10179,7 +14478,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="71" t="s">
         <v>466</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -10189,7 +14488,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="71"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="4" t="s">
         <v>468</v>
       </c>
@@ -10197,7 +14496,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="78" t="s">
         <v>469</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -10207,7 +14506,7 @@
     <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="71"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="6" t="s">
         <v>471</v>
       </c>
@@ -10300,11 +14599,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C34:C36"/>
@@ -10312,6 +14606,11 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
